--- a/TableSupp/policy-GovernmentRegulation-objective_matrix.xlsx
+++ b/TableSupp/policy-GovernmentRegulation-objective_matrix.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.23</v>
+        <v>16.25</v>
       </c>
       <c r="C2">
         <v>38780</v>
       </c>
       <c r="D2">
-        <v>2582.6</v>
+        <v>2585.3</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.34</v>
+        <v>22.79</v>
       </c>
       <c r="C3">
-        <v>38795.3</v>
+        <v>38779.99999999999</v>
       </c>
       <c r="D3">
-        <v>2524.7</v>
+        <v>2521.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.9</v>
+        <v>14.95</v>
       </c>
       <c r="C4">
         <v>38780</v>
       </c>
       <c r="D4">
-        <v>2380.6</v>
+        <v>2377.88</v>
       </c>
     </row>
   </sheetData>

--- a/TableSupp/policy-GovernmentRegulation-objective_matrix.xlsx
+++ b/TableSupp/policy-GovernmentRegulation-objective_matrix.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.25</v>
+        <v>22.81</v>
       </c>
       <c r="C2">
         <v>38780</v>
       </c>
       <c r="D2">
-        <v>2585.3</v>
+        <v>2640.86</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.79</v>
+        <v>21.34</v>
       </c>
       <c r="C3">
-        <v>38779.99999999999</v>
+        <v>38779.99</v>
       </c>
       <c r="D3">
-        <v>2521.1</v>
+        <v>2545.21</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.95</v>
+        <v>19.13</v>
       </c>
       <c r="C4">
-        <v>38780</v>
+        <v>38779.99</v>
       </c>
       <c r="D4">
-        <v>2377.88</v>
+        <v>2556.43</v>
       </c>
     </row>
   </sheetData>

--- a/TableSupp/policy-GovernmentRegulation-objective_matrix.xlsx
+++ b/TableSupp/policy-GovernmentRegulation-objective_matrix.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.81</v>
+        <v>15.25</v>
       </c>
       <c r="C2">
         <v>38780</v>
       </c>
       <c r="D2">
-        <v>2640.86</v>
+        <v>258.53</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.34</v>
+        <v>22.81</v>
       </c>
       <c r="C3">
-        <v>38779.99</v>
+        <v>38779.99999999999</v>
       </c>
       <c r="D3">
-        <v>2545.21</v>
+        <v>252.1</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>19.13</v>
+        <v>14.91</v>
       </c>
       <c r="C4">
-        <v>38779.99</v>
+        <v>38780</v>
       </c>
       <c r="D4">
-        <v>2556.43</v>
+        <v>237.79</v>
       </c>
     </row>
   </sheetData>

--- a/TableSupp/policy-GovernmentRegulation-objective_matrix.xlsx
+++ b/TableSupp/policy-GovernmentRegulation-objective_matrix.xlsx
@@ -402,13 +402,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.25</v>
+        <v>22.81</v>
       </c>
       <c r="C2">
         <v>38780</v>
       </c>
       <c r="D2">
-        <v>258.53</v>
+        <v>264.09</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -416,13 +416,13 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.81</v>
+        <v>21.34</v>
       </c>
       <c r="C3">
-        <v>38779.99999999999</v>
+        <v>38779.99</v>
       </c>
       <c r="D3">
-        <v>252.1</v>
+        <v>254.52</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -430,13 +430,13 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.91</v>
+        <v>19.13</v>
       </c>
       <c r="C4">
-        <v>38780</v>
+        <v>38779.99</v>
       </c>
       <c r="D4">
-        <v>237.79</v>
+        <v>255.64</v>
       </c>
     </row>
   </sheetData>
